--- a/Doc/BurnDownChart.xlsx
+++ b/Doc/BurnDownChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwangju\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwangju\Documents\GitHub\ProjectAppStuff\ProjectAppStuff\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Total</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Edit and config app class</t>
-  </si>
-  <si>
-    <t>Login/LoginHandlng</t>
   </si>
   <si>
     <t>Search bar</t>
@@ -1386,6 +1383,27 @@
                 <c:pt idx="21">
                   <c:v>38</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1399,11 +1417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249258560"/>
-        <c:axId val="249260520"/>
+        <c:axId val="276476320"/>
+        <c:axId val="276477104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249258560"/>
+        <c:axId val="276476320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,12 +1534,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249260520"/>
+        <c:crossAx val="276477104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249260520"/>
+        <c:axId val="276477104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249258560"/>
+        <c:crossAx val="276476320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2751,7 +2769,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,7 +2783,7 @@
       </c>
       <c r="B1">
         <f>SUM(B2:B9)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,17 +2818,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2818,7 +2828,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -2826,7 +2836,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -2841,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,6 +3198,9 @@
       <c r="C24">
         <v>39</v>
       </c>
+      <c r="D24">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3199,6 +3212,9 @@
       <c r="C25">
         <v>38</v>
       </c>
+      <c r="D25">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3210,6 +3226,9 @@
       <c r="C26">
         <v>37</v>
       </c>
+      <c r="D26">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -3221,6 +3240,9 @@
       <c r="C27">
         <v>36</v>
       </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -3232,6 +3254,9 @@
       <c r="C28">
         <v>35</v>
       </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3243,6 +3268,9 @@
       <c r="C29">
         <v>34</v>
       </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3253,6 +3281,9 @@
       </c>
       <c r="C30">
         <v>33</v>
+      </c>
+      <c r="D30">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/Doc/BurnDownChart.xlsx
+++ b/Doc/BurnDownChart.xlsx
@@ -502,37 +502,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>53</c:v>
@@ -685,13 +685,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,190 +934,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,11 +1402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276476320"/>
-        <c:axId val="276477104"/>
+        <c:axId val="258522024"/>
+        <c:axId val="258518496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="276476320"/>
+        <c:axId val="258522024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,12 +1519,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276477104"/>
+        <c:crossAx val="258518496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="276477104"/>
+        <c:axId val="258518496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276476320"/>
+        <c:crossAx val="258522024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2298,16 +2283,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319086</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604836</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2851,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2855,7 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2879,13 +2864,18 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <f>D2/0.7</f>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>49</v>
+      </c>
+      <c r="E2">
+        <f>D2/B2</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2893,13 +2883,18 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <f t="shared" ref="B3:B18" si="0">D3/0.7</f>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>49</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E65" si="1">D3/B3</f>
+        <v>0.7</v>
       </c>
       <c r="Q3">
         <f>65-1.42*1</f>
@@ -2911,13 +2906,18 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>49</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2925,13 +2925,18 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>49</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2939,13 +2944,18 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>49</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2953,13 +2963,17 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>65</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.1016949152542372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2967,13 +2981,17 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>64</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.103448275862069</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2981,13 +2999,17 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>62</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.0877192982456141</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2995,13 +3017,17 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>60</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.0714285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3009,13 +3035,17 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>59</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.0727272727272728</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3023,13 +3053,17 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>58</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.0740740740740742</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3040,12 +3074,16 @@
         <v>53</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <f>38+13</f>
         <v>51</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.96226415094339623</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3055,12 +3093,16 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <f>51</f>
         <v>51</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3070,10 +3112,14 @@
         <v>51</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>50</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3084,13 +3130,17 @@
         <v>48</v>
       </c>
       <c r="C16">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3098,13 +3148,17 @@
         <v>47</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3112,13 +3166,17 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3126,13 +3184,17 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3140,13 +3202,17 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3154,13 +3220,17 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3168,13 +3238,17 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3182,13 +3256,17 @@
         <v>38</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3196,13 +3274,17 @@
         <v>38</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3210,13 +3292,17 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3224,13 +3310,17 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3238,13 +3328,17 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.0277777777777777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3252,13 +3346,17 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.0571428571428572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3266,13 +3364,17 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.0588235294117647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3280,13 +3382,17 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.0909090909090908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3294,10 +3400,14 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3305,10 +3415,14 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3316,10 +3430,14 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3327,10 +3445,14 @@
         <v>29</v>
       </c>
       <c r="C34">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3338,10 +3460,14 @@
         <v>28</v>
       </c>
       <c r="C35">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3349,10 +3475,14 @@
         <v>27</v>
       </c>
       <c r="C36">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3360,10 +3490,14 @@
         <v>26</v>
       </c>
       <c r="C37">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3371,10 +3505,14 @@
         <v>25</v>
       </c>
       <c r="C38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3382,10 +3520,14 @@
         <v>24</v>
       </c>
       <c r="C39">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3393,10 +3535,14 @@
         <v>23</v>
       </c>
       <c r="C40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3404,10 +3550,14 @@
         <v>22</v>
       </c>
       <c r="C41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3415,10 +3565,14 @@
         <v>21</v>
       </c>
       <c r="C42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3426,10 +3580,14 @@
         <v>20</v>
       </c>
       <c r="C43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3437,10 +3595,14 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3448,10 +3610,14 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3459,10 +3625,14 @@
         <v>17</v>
       </c>
       <c r="C46">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3470,10 +3640,14 @@
         <v>16</v>
       </c>
       <c r="C47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3481,10 +3655,14 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3492,10 +3670,14 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3503,10 +3685,14 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3514,10 +3700,14 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3525,10 +3715,14 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3536,10 +3730,14 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3547,10 +3745,14 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3558,10 +3760,14 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3569,10 +3775,14 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3580,10 +3790,14 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3591,83 +3805,94 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/Doc/BurnDownChart.xlsx
+++ b/Doc/BurnDownChart.xlsx
@@ -489,9 +489,6 @@
                 <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -647,51 +644,6 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,51 +831,6 @@
                 <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -934,174 +841,150 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1290,9 +1173,6 @@
                 <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1388,6 +1268,66 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,11 +1342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258522024"/>
-        <c:axId val="258518496"/>
+        <c:axId val="213718616"/>
+        <c:axId val="253840928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258522024"/>
+        <c:axId val="213718616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,12 +1459,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258518496"/>
+        <c:crossAx val="253840928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258518496"/>
+        <c:axId val="253840928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258522024"/>
+        <c:crossAx val="213718616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2834,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,7 +2808,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>49</v>
@@ -2883,11 +2823,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B18" si="0">D3/0.7</f>
+        <f t="shared" ref="B3:B6" si="0">D3/0.7</f>
         <v>70</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>49</v>
@@ -2910,7 +2850,7 @@
         <v>70</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>49</v>
@@ -2929,7 +2869,7 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -2948,7 +2888,7 @@
         <v>70</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>49</v>
@@ -2966,7 +2906,7 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>65</v>
@@ -2984,7 +2924,7 @@
         <v>58</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>64</v>
@@ -3002,7 +2942,7 @@
         <v>57</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>62</v>
@@ -3020,7 +2960,7 @@
         <v>56</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -3038,7 +2978,7 @@
         <v>55</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>59</v>
@@ -3056,7 +2996,7 @@
         <v>54</v>
       </c>
       <c r="C12">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>58</v>
@@ -3074,7 +3014,7 @@
         <v>53</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <f>38+13</f>
@@ -3093,7 +3033,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <f>51</f>
@@ -3112,7 +3052,7 @@
         <v>51</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -3130,7 +3070,7 @@
         <v>48</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>48</v>
@@ -3148,7 +3088,7 @@
         <v>47</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>47</v>
@@ -3166,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>46</v>
@@ -3184,7 +3124,7 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>45</v>
@@ -3202,7 +3142,7 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>43</v>
@@ -3220,7 +3160,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>42</v>
@@ -3238,7 +3178,7 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -3256,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>38</v>
@@ -3274,7 +3214,7 @@
         <v>38</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>38</v>
@@ -3292,7 +3232,7 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>38</v>
@@ -3310,7 +3250,7 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>37</v>
@@ -3328,7 +3268,7 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>37</v>
@@ -3346,7 +3286,7 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>37</v>
@@ -3364,7 +3304,7 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>36</v>
@@ -3382,7 +3322,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>36</v>
@@ -3400,11 +3340,14 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>34</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0625</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,11 +3358,14 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.032258064516129</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3430,11 +3376,14 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3445,11 +3394,14 @@
         <v>29</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3460,11 +3412,14 @@
         <v>28</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3475,11 +3430,14 @@
         <v>27</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,11 +3448,14 @@
         <v>26</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3505,11 +3466,14 @@
         <v>25</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,11 +3484,14 @@
         <v>24</v>
       </c>
       <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
         <v>20</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,11 +3502,14 @@
         <v>23</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.78260869565217395</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,11 +3520,14 @@
         <v>22</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3565,11 +3538,14 @@
         <v>21</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,11 +3556,14 @@
         <v>20</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3595,11 +3574,14 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,11 +3592,14 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,11 +3610,14 @@
         <v>17</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.41176470588235292</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3640,11 +3628,14 @@
         <v>16</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3655,11 +3646,14 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3670,11 +3664,14 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3685,215 +3682,14 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>12</v>
-      </c>
-      <c r="C51">
-        <v>8</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>8</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>6</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
   </sheetData>
